--- a/Database Design/JAVA 20 - Van Dat - Database Design.xlsx
+++ b/Database Design/JAVA 20 - Van Dat - Database Design.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE933F4-EB1F-4BAB-A8FE-16671A06FBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3251A934-5EC1-4DCC-8271-D17342F40748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="601" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="601" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId1"/>
     <sheet name="B2. Mô hình logic" sheetId="2" r:id="rId2"/>
     <sheet name="B3. Mô hình quan hệ" sheetId="3" r:id="rId3"/>
-    <sheet name="4. Cơ sở dữ liệu vật lý" sheetId="4" r:id="rId4"/>
-    <sheet name="Note" sheetId="7" r:id="rId5"/>
+    <sheet name="B4. Cơ sở dữ liệu vật lý" sheetId="8" r:id="rId4"/>
+    <sheet name="Các bước khởi tạo CSDL" sheetId="4" r:id="rId5"/>
+    <sheet name="Note" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -139,8 +140,66 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{B80B30A3-6E1B-4526-BE87-B987A3555003}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+thuộc tính đa trị</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y13" authorId="0" shapeId="0" xr:uid="{A7D7529F-367E-4C42-8FB6-DB90C956C294}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+thuộc tính đơn trị</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="239">
   <si>
     <t>Xác định các đối tượng cần lưu trữ
 Xác định các thuộc tính, thông tin của từng đối tượng</t>
@@ -978,12 +1037,88 @@
   <si>
     <t>Miền giá trị của khóa ngoại trong bảng con phải giống với miền giá trị của khóa chính trong bảng cha</t>
   </si>
+  <si>
+    <t>CUSTOMER_ID</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_ID</t>
+  </si>
+  <si>
+    <t>DEPARTMENT_ID</t>
+  </si>
+  <si>
+    <t>SIZE_ID</t>
+  </si>
+  <si>
+    <t>ITEM_DETAIL_ID</t>
+  </si>
+  <si>
+    <t>ORDER-DETAIL</t>
+  </si>
+  <si>
+    <t>ORDER-STATUS-DETAIL</t>
+  </si>
+  <si>
+    <t>ORDER_STATUS_ID</t>
+  </si>
+  <si>
+    <t>UPDATED_AT</t>
+  </si>
+  <si>
+    <t>Đang xác thực đơn hàng</t>
+  </si>
+  <si>
+    <t>NV A</t>
+  </si>
+  <si>
+    <t>Đang đóng gói</t>
+  </si>
+  <si>
+    <t>NV B</t>
+  </si>
+  <si>
+    <t>Hoàn thành đóng gói
+đang đợi nhân viên giao hàng</t>
+  </si>
+  <si>
+    <t>NV C</t>
+  </si>
+  <si>
+    <t>Đang giao hàng</t>
+  </si>
+  <si>
+    <t>NV D</t>
+  </si>
+  <si>
+    <t>Giao thành công</t>
+  </si>
+  <si>
+    <t>NV E</t>
+  </si>
+  <si>
+    <t>Giao thất bại</t>
+  </si>
+  <si>
+    <t>Hủy đơn hàng</t>
+  </si>
+  <si>
+    <t>ORDER_STATUS_DETAIL</t>
+  </si>
+  <si>
+    <t>UDPATED_AT</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1085,6 +1220,20 @@
     <font>
       <sz val="18"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1216,7 +1365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1297,46 +1446,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1344,9 +1454,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1375,20 +1482,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1450,6 +1594,61 @@
         <a:xfrm>
           <a:off x="3188804" y="15461371"/>
           <a:ext cx="10049364" cy="7530247"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1841816</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>311728</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E2D0DA-CAFB-1C09-1101-1A9F2506DFE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13265727" y="7273636"/>
+          <a:ext cx="8838362" cy="5160819"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1726,7 +1925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -1748,21 +1947,21 @@
   <sheetData>
     <row r="1" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="G2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1771,9 +1970,9 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2145,7 +2344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -2167,16 +2366,16 @@
   <sheetData>
     <row r="1" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2185,9 +2384,9 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2576,7 +2775,7 @@
     </row>
     <row r="20" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="56" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -2593,7 +2792,7 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
@@ -2622,7 +2821,7 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="57" t="s">
         <v>73</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -2638,7 +2837,7 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="37"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
@@ -2907,7 +3106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
@@ -2931,18 +3130,18 @@
   <sheetData>
     <row r="1" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="1" t="s">
@@ -2953,9 +3152,9 @@
       </c>
     </row>
     <row r="4" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="1" t="s">
@@ -3429,7 +3628,7 @@
     <row r="20" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="19"/>
@@ -3449,7 +3648,7 @@
     </row>
     <row r="22" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="19"/>
@@ -3468,7 +3667,7 @@
       <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="19"/>
@@ -3487,7 +3686,7 @@
       <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="19"/>
@@ -3504,1034 +3703,1034 @@
       <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
     </row>
     <row r="28" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
     </row>
     <row r="29" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
     </row>
     <row r="30" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
     </row>
     <row r="31" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
     </row>
     <row r="32" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
     </row>
     <row r="33" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
     </row>
     <row r="34" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="39"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34"/>
     </row>
     <row r="35" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="22" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="41">
+      <c r="B36" s="3">
         <v>1</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="3">
         <v>100</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="41">
+      <c r="B37" s="3">
         <v>2</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="3">
         <v>200</v>
       </c>
-      <c r="E37" s="41">
+      <c r="E37" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="41">
+      <c r="B38" s="3">
         <v>3</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="3">
         <v>300</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="41">
+      <c r="B39" s="3">
         <v>4</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39" s="3">
         <v>400</v>
       </c>
-      <c r="E39" s="41">
+      <c r="E39" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
     </row>
     <row r="41" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
     </row>
     <row r="42" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
+      <c r="C42" s="3"/>
+      <c r="D42"/>
+      <c r="E42"/>
     </row>
     <row r="43" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
+      <c r="D43"/>
+      <c r="E43"/>
     </row>
     <row r="44" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="41">
+      <c r="B44" s="3">
         <v>1</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
+      <c r="D44"/>
+      <c r="E44"/>
     </row>
     <row r="45" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="41">
+      <c r="B45" s="3">
         <v>2</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
+      <c r="D45"/>
+      <c r="E45"/>
     </row>
     <row r="46" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="41">
+      <c r="B46" s="3">
         <v>3</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
+      <c r="D46"/>
+      <c r="E46"/>
     </row>
     <row r="47" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
     </row>
     <row r="48" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
     </row>
     <row r="49" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
     </row>
     <row r="50" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
     </row>
     <row r="51" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="39"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="48" t="s">
+      <c r="C57" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="48" t="s">
+      <c r="D57" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="E57" s="47" t="s">
+      <c r="E57" s="22" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="D58" s="41" t="s">
+      <c r="D58" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E58" s="41">
+      <c r="E58" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="52" t="s">
+      <c r="C59" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D59" s="41" t="s">
+      <c r="D59" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E59" s="41">
+      <c r="E59" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60" s="3">
         <v>18.09</v>
       </c>
-      <c r="D60" s="41" t="s">
+      <c r="D60" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E60" s="41">
+      <c r="E60" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C61" s="61" t="s">
+      <c r="C61" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="D61" s="41" t="s">
+      <c r="D61" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E61" s="41">
+      <c r="E61" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="63" t="s">
+      <c r="C64" s="45"/>
+      <c r="D64" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="E64" s="39"/>
+      <c r="E64"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="48" t="s">
+      <c r="C65" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D65" s="47" t="s">
+      <c r="D65" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="E65" s="39"/>
-      <c r="F65" s="53" t="s">
+      <c r="E65"/>
+      <c r="F65" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="G65" s="54" t="s">
+      <c r="G65" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="H65" s="53"/>
+      <c r="H65" s="37"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C66" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D66" s="41" t="s">
+      <c r="D66" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E66" s="39"/>
-      <c r="F66" s="41" t="s">
+      <c r="E66"/>
+      <c r="F66" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G66" s="41" t="s">
+      <c r="G66" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H66" s="41" t="s">
+      <c r="H66" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C67" s="41" t="s">
+      <c r="C67" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D67" s="41" t="s">
+      <c r="D67" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E67" s="39"/>
-      <c r="F67" s="41">
+      <c r="E67"/>
+      <c r="F67" s="3">
         <v>1</v>
       </c>
-      <c r="G67" s="41" t="s">
+      <c r="G67" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H67" s="41" t="s">
+      <c r="H67" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D68" s="41" t="s">
+      <c r="D68" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E68" s="39"/>
-      <c r="F68" s="41">
+      <c r="E68"/>
+      <c r="F68" s="3">
         <v>2</v>
       </c>
-      <c r="G68" s="41" t="s">
+      <c r="G68" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H68" s="41" t="s">
+      <c r="H68" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C69" s="41" t="s">
+      <c r="C69" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D69" s="41" t="s">
+      <c r="D69" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E69" s="39"/>
-      <c r="F69" s="41">
+      <c r="E69"/>
+      <c r="F69" s="3">
         <v>3</v>
       </c>
-      <c r="G69" s="41" t="s">
+      <c r="G69" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H69" s="41" t="s">
+      <c r="H69" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="41">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70" s="3">
         <v>4</v>
       </c>
-      <c r="G70" s="41" t="s">
+      <c r="G70" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="H70" s="41" t="s">
+      <c r="H70" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="43" t="s">
+      <c r="B78" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="42" t="s">
+      <c r="B80" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="42"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
+      <c r="B81" s="4"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="40" t="s">
+      <c r="B82" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="48" t="s">
+      <c r="B84" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="48" t="s">
+      <c r="C84" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="D84" s="48" t="s">
+      <c r="D84" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="E84" s="47" t="s">
+      <c r="E84" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="F84" s="56" t="s">
+      <c r="F84" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="G84" s="56"/>
+      <c r="G84" s="40"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C85" s="51" t="s">
+      <c r="C85" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="D85" s="41" t="s">
+      <c r="D85" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E85" s="41">
+      <c r="E85" s="3">
         <v>1</v>
       </c>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C86" s="52" t="s">
+      <c r="C86" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D86" s="41" t="s">
+      <c r="D86" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E86" s="41">
+      <c r="E86" s="3">
         <v>2</v>
       </c>
-      <c r="F86" s="56" t="s">
+      <c r="F86" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="G86" s="56" t="s">
+      <c r="G86" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C87" s="41">
+      <c r="C87" s="3">
         <v>18.09</v>
       </c>
-      <c r="D87" s="41" t="s">
+      <c r="D87" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E87" s="41">
+      <c r="E87" s="3">
         <v>2</v>
       </c>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C88" s="52" t="s">
+      <c r="C88" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="D88" s="41" t="s">
+      <c r="D88" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E88" s="41">
+      <c r="E88" s="3">
         <v>1</v>
       </c>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="56"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="40" t="s">
+      <c r="B90" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="56"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="50" t="s">
+      <c r="B91" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="56"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="40"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="48" t="s">
+      <c r="B92" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C92" s="48" t="s">
+      <c r="C92" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D92" s="48" t="s">
+      <c r="D92" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="E92" s="47" t="s">
+      <c r="E92" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="F92" s="56" t="s">
+      <c r="F92" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="G92" s="56"/>
+      <c r="G92" s="40"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="41">
+      <c r="B93" s="3">
         <v>1</v>
       </c>
-      <c r="C93" s="41" t="s">
+      <c r="C93" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D93" s="41">
+      <c r="D93" s="3">
         <v>100</v>
       </c>
-      <c r="E93" s="41">
+      <c r="E93" s="3">
         <v>1</v>
       </c>
-      <c r="F93" s="56" t="s">
+      <c r="F93" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="G93" s="56" t="s">
+      <c r="G93" s="40" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="41">
+      <c r="B94" s="3">
         <v>2</v>
       </c>
-      <c r="C94" s="41" t="s">
+      <c r="C94" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D94" s="41">
+      <c r="D94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="41">
+      <c r="E94" s="3">
         <v>1</v>
       </c>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="41">
+      <c r="B95" s="3">
         <v>3</v>
       </c>
-      <c r="C95" s="41" t="s">
+      <c r="C95" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D95" s="41">
+      <c r="D95" s="3">
         <v>300</v>
       </c>
-      <c r="E95" s="41">
+      <c r="E95" s="3">
         <v>2</v>
       </c>
-      <c r="F95" s="56" t="s">
+      <c r="F95" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="G95" s="56" t="s">
+      <c r="G95" s="40" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="41">
+      <c r="B96" s="3">
         <v>4</v>
       </c>
-      <c r="C96" s="41" t="s">
+      <c r="C96" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D96" s="41">
+      <c r="D96" s="3">
         <v>400</v>
       </c>
-      <c r="E96" s="41">
+      <c r="E96" s="3">
         <v>1</v>
       </c>
-      <c r="F96" s="56" t="s">
+      <c r="F96" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="G96" s="56" t="s">
+      <c r="G96" s="40" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="42" t="s">
+      <c r="B99" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="55" t="s">
+      <c r="B101" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="57" t="s">
+      <c r="B102" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="57" t="s">
+      <c r="C102" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D102" s="41" t="s">
+      <c r="D102" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E102" s="39"/>
+      <c r="E102"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C103" s="41">
+      <c r="C103" s="3">
         <v>1</v>
       </c>
-      <c r="D103" s="41">
+      <c r="D103" s="3">
         <v>10</v>
       </c>
-      <c r="E103" s="46"/>
+      <c r="E103" s="12"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="41" t="s">
+      <c r="B104" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C104" s="41">
+      <c r="C104" s="3">
         <v>2</v>
       </c>
-      <c r="D104" s="41">
+      <c r="D104" s="3">
         <v>12</v>
       </c>
-      <c r="E104" s="39"/>
+      <c r="E104"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="41" t="s">
+      <c r="B105" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C105" s="41">
+      <c r="C105" s="3">
         <v>4</v>
       </c>
-      <c r="D105" s="41">
+      <c r="D105" s="3">
         <v>65</v>
       </c>
-      <c r="E105" s="39"/>
+      <c r="E105"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="41" t="s">
+      <c r="B106" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C106" s="41">
+      <c r="C106" s="3">
         <v>5</v>
       </c>
-      <c r="D106" s="41">
+      <c r="D106" s="3">
         <v>10</v>
       </c>
-      <c r="E106" s="39"/>
+      <c r="E106"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="41" t="s">
+      <c r="B107" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C107" s="41">
+      <c r="C107" s="3">
         <v>6</v>
       </c>
-      <c r="D107" s="41">
+      <c r="D107" s="3">
         <v>12</v>
       </c>
-      <c r="E107" s="39"/>
+      <c r="E107"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="41" t="s">
+      <c r="B108" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C108" s="41">
+      <c r="C108" s="3">
         <v>6</v>
       </c>
-      <c r="D108" s="41">
+      <c r="D108" s="3">
         <v>65</v>
       </c>
-      <c r="E108" s="39"/>
+      <c r="E108"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="50" t="s">
+      <c r="B111" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C111" s="38" t="s">
+      <c r="C111" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="D111" s="38"/>
-      <c r="E111" s="39"/>
+      <c r="D111" s="59"/>
+      <c r="E111"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="58" t="s">
+      <c r="B112" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C112" s="47" t="s">
+      <c r="C112" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="D112" s="47" t="s">
+      <c r="D112" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E112" s="41" t="s">
+      <c r="E112" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="41">
+      <c r="B113" s="3">
         <v>1</v>
       </c>
-      <c r="C113" s="41" t="s">
+      <c r="C113" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D113" s="41">
+      <c r="D113" s="3">
         <v>1</v>
       </c>
-      <c r="E113" s="41">
+      <c r="E113" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="41">
+      <c r="B114" s="3">
         <v>2</v>
       </c>
-      <c r="C114" s="41" t="s">
+      <c r="C114" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D114" s="41">
+      <c r="D114" s="3">
         <v>2</v>
       </c>
-      <c r="E114" s="41">
+      <c r="E114" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="41">
+      <c r="B115" s="3">
         <v>3</v>
       </c>
-      <c r="C115" s="41" t="s">
+      <c r="C115" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D115" s="41">
+      <c r="D115" s="3">
         <v>4</v>
       </c>
-      <c r="E115" s="41">
+      <c r="E115" s="3">
         <v>65</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="41">
+      <c r="B116" s="3">
         <v>4</v>
       </c>
-      <c r="C116" s="41" t="s">
+      <c r="C116" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D116" s="41">
+      <c r="D116" s="3">
         <v>5</v>
       </c>
-      <c r="E116" s="41">
+      <c r="E116" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="41">
+      <c r="B117" s="3">
         <v>5</v>
       </c>
-      <c r="C117" s="41" t="s">
+      <c r="C117" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D117" s="41">
+      <c r="D117" s="3">
         <v>6</v>
       </c>
-      <c r="E117" s="41">
+      <c r="E117" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="41">
+      <c r="B118" s="3">
         <v>6</v>
       </c>
-      <c r="C118" s="41" t="s">
+      <c r="C118" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D118" s="41">
+      <c r="D118" s="3">
         <v>6</v>
       </c>
-      <c r="E118" s="41">
+      <c r="E118" s="3">
         <v>65</v>
       </c>
     </row>
@@ -4547,6 +4746,1974 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038FB31C-6AC0-43D1-9364-BB218A7B5A25}">
+  <dimension ref="A1:Y142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="22.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="30.5703125" style="1" customWidth="1"/>
+    <col min="17" max="105" width="22.7109375" style="1" customWidth="1"/>
+    <col min="106" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="W8" s="9"/>
+    </row>
+    <row r="9" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="10"/>
+    </row>
+    <row r="11" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="W13" s="12"/>
+    </row>
+    <row r="14" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="10"/>
+    </row>
+    <row r="15" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="10"/>
+    </row>
+    <row r="16" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="10"/>
+    </row>
+    <row r="17" spans="1:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="1:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14"/>
+      <c r="B21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14"/>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="3">
+        <v>100</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="3">
+        <v>200</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="3">
+        <v>300</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="3">
+        <v>400</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>3</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="3">
+        <v>18.09</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="45"/>
+      <c r="D64" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="G65" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="H65" s="37"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68" s="3">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69" s="3">
+        <v>3</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70" s="3">
+        <v>4</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F84" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="G84" s="40"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E85" s="3">
+        <v>1</v>
+      </c>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E86" s="3">
+        <v>2</v>
+      </c>
+      <c r="F86" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="G86" s="40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" s="3">
+        <v>18.09</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E87" s="3">
+        <v>2</v>
+      </c>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E88" s="3">
+        <v>1</v>
+      </c>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="40"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F92" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G92" s="40"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="3">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D93" s="3">
+        <v>100</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1</v>
+      </c>
+      <c r="F93" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="G93" s="40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="3">
+        <v>2</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D94" s="3">
+        <v>200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1</v>
+      </c>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="3">
+        <v>3</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95" s="3">
+        <v>300</v>
+      </c>
+      <c r="E95" s="3">
+        <v>2</v>
+      </c>
+      <c r="F95" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="G95" s="40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="3">
+        <v>4</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" s="3">
+        <v>400</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1</v>
+      </c>
+      <c r="F96" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="G96" s="40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E102"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1</v>
+      </c>
+      <c r="D103" s="3">
+        <v>10</v>
+      </c>
+      <c r="E103" s="12"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C104" s="3">
+        <v>2</v>
+      </c>
+      <c r="D104" s="3">
+        <v>12</v>
+      </c>
+      <c r="E104"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C105" s="3">
+        <v>4</v>
+      </c>
+      <c r="D105" s="3">
+        <v>65</v>
+      </c>
+      <c r="E105"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C106" s="3">
+        <v>5</v>
+      </c>
+      <c r="D106" s="3">
+        <v>10</v>
+      </c>
+      <c r="E106"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" s="3">
+        <v>6</v>
+      </c>
+      <c r="D107" s="3">
+        <v>12</v>
+      </c>
+      <c r="E107"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" s="3">
+        <v>6</v>
+      </c>
+      <c r="D108" s="3">
+        <v>65</v>
+      </c>
+      <c r="E108"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C111" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="D111" s="59"/>
+      <c r="E111"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="3">
+        <v>1</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1</v>
+      </c>
+      <c r="E113" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="3">
+        <v>2</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D114" s="3">
+        <v>2</v>
+      </c>
+      <c r="E114" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="3">
+        <v>3</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D115" s="3">
+        <v>4</v>
+      </c>
+      <c r="E115" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="3">
+        <v>4</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D116" s="3">
+        <v>5</v>
+      </c>
+      <c r="E116" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="3">
+        <v>5</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117" s="3">
+        <v>6</v>
+      </c>
+      <c r="E117" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="3">
+        <v>6</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D118" s="3">
+        <v>6</v>
+      </c>
+      <c r="E118" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D124"/>
+      <c r="E124" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="3">
+        <v>1</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D125"/>
+      <c r="E125" s="3">
+        <v>1</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="3">
+        <v>2</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D126"/>
+      <c r="E126" s="3">
+        <v>2</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="3">
+        <v>3</v>
+      </c>
+      <c r="C127" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="D127"/>
+      <c r="E127" s="3">
+        <v>3</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="3">
+        <v>4</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128" s="3">
+        <v>4</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="3">
+        <v>5</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D129"/>
+      <c r="E129" s="3">
+        <v>5</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="3">
+        <v>6</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="3">
+        <v>7</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="3">
+        <v>1</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D135" s="3">
+        <v>1</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="3">
+        <v>2</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D136" s="3">
+        <v>2</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="3">
+        <v>3</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D137" s="3">
+        <v>3</v>
+      </c>
+      <c r="E137" s="3">
+        <v>3</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="3">
+        <v>4</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D138" s="3">
+        <v>4</v>
+      </c>
+      <c r="E138" s="3">
+        <v>3</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="3">
+        <v>5</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D139" s="3">
+        <v>5</v>
+      </c>
+      <c r="E139" s="3">
+        <v>5</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="3">
+        <v>6</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D140" s="3">
+        <v>1</v>
+      </c>
+      <c r="E140" s="3">
+        <v>2</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="3">
+        <v>7</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D141" s="3">
+        <v>2</v>
+      </c>
+      <c r="E141" s="3">
+        <v>2</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B142" s="3">
+        <v>8</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D142" s="3">
+        <v>7</v>
+      </c>
+      <c r="E142" s="3">
+        <v>4</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="C111:D111"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A45"/>
   <sheetViews>
@@ -4687,7 +6854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FBAE77-E0AC-4D81-BCAE-E7825E20CCB2}">
   <dimension ref="F5:H10"/>
   <sheetViews>
@@ -4703,60 +6870,60 @@
   </cols>
   <sheetData>
     <row r="5" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="43" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="43" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="7" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="H7" s="62" t="s">
+      <c r="H7" s="43" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="8" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="62"/>
-      <c r="G8" s="62" t="s">
+      <c r="F8" s="43"/>
+      <c r="G8" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="43" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="9" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="62"/>
-      <c r="G9" s="59" t="s">
+      <c r="F9" s="43"/>
+      <c r="G9" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="43" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="10" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="62"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="62" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="43" t="s">
         <v>212</v>
       </c>
     </row>
